--- a/Table/client/lua/exe/temp/X 仙魂合成表.xlsx
+++ b/Table/client/lua/exe/temp/X 仙魂合成表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ol_and_v13\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FCC71B-70E4-4814-B175-9A408E5AA837}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,13 +30,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>pc</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E1FB7521-15C2-4016-BDE4-495D2F14A636}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,128 +99,647 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>仙魂ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>消耗仙魂石数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成消耗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成消耗2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成所需等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙魂·追命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙魂·崇武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙魂·遁甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙魂·化境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎甲之魂</t>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙魂·暴戾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>術攻之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>術防之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防禦之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閃避之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂戰之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強體之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成長之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強化之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙魂·長生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙魂·破軍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗仙魂石数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成消耗1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成消耗2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成所需等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙魂·追命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙魂·崇武</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙魂·遁甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙魂·长生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙魂·破军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙魂·化境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击之魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御之魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命之魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破甲之魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避之魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中之魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂战之魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天罡之魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强体之魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成长之魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化之魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎甲之魂</t>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙魂·暴戾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>术攻之魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>术防之魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>마법공격의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>마법방어의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>공격의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>방어의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>생명의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>파갑의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>회피의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>명중의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>광전의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>천강의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>강체의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>쇄갑의 혼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>성장의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>강화의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>마법공격의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>마법방어의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>공격의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>방어의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>생명의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>파갑의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>회피의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>명중의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>광전의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>천강의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>강체의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>성장의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>강화의 혼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선혼·잔혹</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선혼·추명</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선혼·숭무</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선혼·둔갑</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선혼·장생</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선혼·파군</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선혼·잔혹</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선혼·숭무</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선혼·둔갑</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선혼·장생</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선혼·파군</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선혼·화경</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선혼·화경</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +791,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +836,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -319,7 +857,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,6 +893,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,1022 +1216,1153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="11" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="13"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="12" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="10">
         <v>90100094</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="9">
-        <v>250</v>
+      <c r="C2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E2" s="9">
         <v>250</v>
       </c>
-      <c r="H2" s="9">
+      <c r="F2" s="9">
+        <v>250</v>
+      </c>
+      <c r="I2" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="10">
         <v>90100104</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="9">
-        <v>250</v>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="9">
         <v>250</v>
       </c>
-      <c r="H3" s="9">
+      <c r="F3" s="9">
+        <v>250</v>
+      </c>
+      <c r="I3" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <v>90100014</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="9">
-        <v>250</v>
+      <c r="C4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="E4" s="9">
         <v>250</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9">
+        <v>250</v>
+      </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="9">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="9">
         <v>90100024</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="9">
-        <v>250</v>
+      <c r="C5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="9">
         <v>250</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9">
+        <v>250</v>
+      </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="9">
         <v>90100034</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9">
         <v>260</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="9">
         <v>250</v>
       </c>
-      <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="9">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="9">
         <v>90100044</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9">
         <v>260</v>
       </c>
-      <c r="E7" s="9">
+      <c r="F7" s="9">
         <v>250</v>
       </c>
-      <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="9">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="9">
         <v>90100054</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9">
         <v>270</v>
       </c>
-      <c r="E8" s="9">
+      <c r="F8" s="9">
         <v>250</v>
       </c>
-      <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="9">
         <v>90100064</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9">
         <v>270</v>
       </c>
-      <c r="E9" s="9">
+      <c r="F9" s="9">
         <v>250</v>
       </c>
-      <c r="H9" s="9">
+      <c r="I9" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="9">
         <v>90100114</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="9">
         <v>280</v>
       </c>
-      <c r="E10" s="9">
+      <c r="F10" s="9">
         <v>250</v>
       </c>
-      <c r="H10" s="9">
+      <c r="I10" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="9">
         <v>90100124</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="C11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9">
         <v>280</v>
       </c>
-      <c r="E11" s="9">
+      <c r="F11" s="9">
         <v>250</v>
       </c>
-      <c r="H11" s="9">
+      <c r="I11" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="9">
         <v>90100134</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="9">
         <v>290</v>
       </c>
-      <c r="E12" s="9">
+      <c r="F12" s="9">
         <v>250</v>
       </c>
-      <c r="H12" s="9">
+      <c r="I12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="9">
         <v>90100144</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="C13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9">
         <v>290</v>
       </c>
-      <c r="E13" s="9">
+      <c r="F13" s="9">
         <v>250</v>
       </c>
-      <c r="H13" s="9">
+      <c r="I13" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="9">
         <v>90100074</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="C14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="9">
         <v>310</v>
       </c>
-      <c r="E14" s="9">
+      <c r="F14" s="9">
         <v>250</v>
       </c>
-      <c r="H14" s="9">
+      <c r="I14" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="9">
         <v>90100084</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="C15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="9">
         <v>310</v>
       </c>
-      <c r="E15" s="9">
+      <c r="F15" s="9">
         <v>250</v>
       </c>
-      <c r="H15" s="9">
+      <c r="I15" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="10">
         <v>90100095</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="C16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="9">
         <v>250</v>
       </c>
-      <c r="E16" s="9">
+      <c r="F16" s="9">
         <v>750</v>
       </c>
-      <c r="H16" s="9">
+      <c r="I16" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="10">
         <v>90100105</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="C17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="9">
         <v>250</v>
       </c>
-      <c r="E17" s="9">
+      <c r="F17" s="9">
         <v>750</v>
       </c>
-      <c r="H17" s="9">
+      <c r="I17" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="9">
         <v>90100015</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="9">
         <v>250</v>
       </c>
-      <c r="E18" s="9">
+      <c r="F18" s="9">
         <v>750</v>
       </c>
-      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="9">
         <v>90100025</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="C19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="9">
         <v>250</v>
       </c>
-      <c r="E19" s="9">
+      <c r="F19" s="9">
         <v>750</v>
       </c>
-      <c r="H19" s="9">
+      <c r="I19" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="9">
         <v>90100035</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="C20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="9">
         <v>260</v>
       </c>
-      <c r="E20" s="9">
+      <c r="F20" s="9">
         <v>750</v>
       </c>
-      <c r="H20" s="9">
+      <c r="I20" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="9">
         <v>90100045</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="9">
+      <c r="C21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="9">
         <v>260</v>
       </c>
-      <c r="E21" s="9">
+      <c r="F21" s="9">
         <v>750</v>
       </c>
-      <c r="H21" s="9">
+      <c r="I21" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="9">
         <v>90100055</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="C22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="9">
         <v>270</v>
       </c>
-      <c r="E22" s="9">
+      <c r="F22" s="9">
         <v>750</v>
       </c>
-      <c r="H22" s="9">
+      <c r="I22" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="9">
         <v>90100065</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="C23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="9">
         <v>270</v>
       </c>
-      <c r="E23" s="9">
+      <c r="F23" s="9">
         <v>750</v>
       </c>
-      <c r="H23" s="9">
+      <c r="I23" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="9">
         <v>90100115</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="C24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="9">
         <v>280</v>
       </c>
-      <c r="E24" s="9">
+      <c r="F24" s="9">
         <v>750</v>
       </c>
-      <c r="H24" s="9">
+      <c r="I24" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="9">
         <v>90100125</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="9">
+      <c r="C25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="9">
         <v>280</v>
       </c>
-      <c r="E25" s="9">
+      <c r="F25" s="9">
         <v>750</v>
       </c>
-      <c r="H25" s="9">
+      <c r="I25" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="9">
         <v>90100135</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="C26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="9">
         <v>290</v>
       </c>
-      <c r="E26" s="9">
+      <c r="F26" s="9">
         <v>750</v>
       </c>
-      <c r="H26" s="9">
+      <c r="I26" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="9">
         <v>90100145</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="C27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="9">
         <v>290</v>
       </c>
-      <c r="E27" s="9">
+      <c r="F27" s="9">
         <v>750</v>
       </c>
-      <c r="H27" s="9">
+      <c r="I27" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="9">
         <v>90100075</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="C28" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="9">
         <v>310</v>
       </c>
-      <c r="E28" s="9">
+      <c r="F28" s="9">
         <v>750</v>
       </c>
-      <c r="H28" s="9">
+      <c r="I28" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="9">
         <v>90100085</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="9">
+      <c r="C29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="9">
         <v>310</v>
       </c>
-      <c r="E29" s="9">
+      <c r="F29" s="9">
         <v>750</v>
       </c>
-      <c r="H29" s="9">
+      <c r="I29" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="11">
         <v>90100214</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="C30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="9">
         <v>270</v>
       </c>
-      <c r="E30" s="9">
+      <c r="F30" s="9">
         <v>550</v>
       </c>
-      <c r="F30" s="10">
+      <c r="G30" s="10">
         <v>90100094</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H30" s="10">
         <v>90100104</v>
       </c>
-      <c r="H30" s="9">
+      <c r="I30" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="B31" s="6">
         <v>90100194</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="6">
+      <c r="C31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="6">
         <v>270</v>
       </c>
-      <c r="E31" s="6">
+      <c r="F31" s="6">
         <v>550</v>
       </c>
-      <c r="F31" s="6">
+      <c r="G31" s="6">
         <v>90100054</v>
       </c>
-      <c r="G31" s="6">
+      <c r="H31" s="6">
         <v>90100064</v>
       </c>
-      <c r="H31" s="6">
+      <c r="I31" s="6">
         <v>3</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="5"/>
+      <c r="J31" s="10"/>
       <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="6">
         <v>90100154</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="C32" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="6">
         <v>280</v>
       </c>
-      <c r="E32" s="6">
+      <c r="F32" s="6">
         <v>550</v>
       </c>
-      <c r="F32" s="6">
+      <c r="G32" s="6">
         <v>90100014</v>
       </c>
-      <c r="G32" s="6">
+      <c r="H32" s="6">
         <v>90100114</v>
       </c>
-      <c r="H32" s="6">
+      <c r="I32" s="6">
         <v>3</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="5"/>
+      <c r="J32" s="10"/>
       <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>32</v>
       </c>
       <c r="B33" s="6">
         <v>90100164</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="6">
+      <c r="C33" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="6">
         <v>280</v>
       </c>
-      <c r="E33" s="6">
+      <c r="F33" s="6">
         <v>550</v>
       </c>
-      <c r="F33" s="6">
+      <c r="G33" s="6">
         <v>90100024</v>
       </c>
-      <c r="G33" s="6">
+      <c r="H33" s="6">
         <v>90100124</v>
       </c>
-      <c r="H33" s="6">
+      <c r="I33" s="6">
         <v>3</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="5"/>
+      <c r="J33" s="10"/>
       <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>33</v>
       </c>
       <c r="B34" s="6">
         <v>90100174</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="C34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="6">
         <v>290</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F34" s="6">
         <v>550</v>
       </c>
-      <c r="F34" s="6">
+      <c r="G34" s="6">
         <v>90100034</v>
       </c>
-      <c r="G34" s="6">
+      <c r="H34" s="6">
         <v>90100134</v>
       </c>
-      <c r="H34" s="6">
+      <c r="I34" s="6">
         <v>3</v>
       </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="5"/>
+      <c r="J34" s="10"/>
       <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>34</v>
       </c>
       <c r="B35" s="6">
         <v>90100184</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="C35" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="6">
         <v>290</v>
       </c>
-      <c r="E35" s="6">
+      <c r="F35" s="6">
         <v>550</v>
       </c>
-      <c r="F35" s="6">
+      <c r="G35" s="6">
         <v>90100044</v>
       </c>
-      <c r="G35" s="6">
+      <c r="H35" s="6">
         <v>90100144</v>
       </c>
-      <c r="H35" s="6">
+      <c r="I35" s="6">
         <v>3</v>
       </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="5"/>
+      <c r="J35" s="10"/>
       <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>35</v>
       </c>
       <c r="B36" s="11">
         <v>90100215</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="C36" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="9">
         <v>270</v>
       </c>
-      <c r="E36" s="9">
+      <c r="F36" s="9">
         <v>1650</v>
       </c>
-      <c r="F36" s="10">
+      <c r="G36" s="10">
         <v>90100095</v>
       </c>
-      <c r="G36" s="10">
+      <c r="H36" s="10">
         <v>90100105</v>
       </c>
-      <c r="H36" s="9">
+      <c r="I36" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>36</v>
       </c>
       <c r="B37" s="6">
         <v>90100195</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="6">
+      <c r="C37" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="6">
         <v>270</v>
       </c>
-      <c r="E37" s="5">
+      <c r="F37" s="5">
         <v>1650</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G37" s="5">
         <v>90100055</v>
       </c>
-      <c r="G37" s="5">
+      <c r="H37" s="5">
         <v>90100065</v>
       </c>
-      <c r="H37" s="5">
+      <c r="I37" s="5">
         <v>4</v>
       </c>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>37</v>
       </c>
       <c r="B38" s="6">
         <v>90100155</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="6">
+      <c r="C38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="6">
         <v>280</v>
       </c>
-      <c r="E38" s="5">
+      <c r="F38" s="5">
         <v>1650</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>90100015</v>
       </c>
-      <c r="G38" s="5">
+      <c r="H38" s="5">
         <v>90100115</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I38" s="5">
         <v>4</v>
       </c>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>38</v>
       </c>
       <c r="B39" s="6">
         <v>90100165</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="6">
+      <c r="C39" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="6">
         <v>280</v>
       </c>
-      <c r="E39" s="5">
+      <c r="F39" s="5">
         <v>1650</v>
       </c>
-      <c r="F39" s="5">
+      <c r="G39" s="5">
         <v>90100025</v>
       </c>
-      <c r="G39" s="5">
+      <c r="H39" s="5">
         <v>90100125</v>
       </c>
-      <c r="H39" s="5">
+      <c r="I39" s="5">
         <v>4</v>
       </c>
-      <c r="I39" s="10"/>
-    </row>
-    <row r="40" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>39</v>
       </c>
       <c r="B40" s="6">
         <v>90100175</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="6">
+      <c r="C40" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="6">
         <v>290</v>
       </c>
-      <c r="E40" s="5">
+      <c r="F40" s="5">
         <v>1650</v>
       </c>
-      <c r="F40" s="5">
+      <c r="G40" s="5">
         <v>90100035</v>
       </c>
-      <c r="G40" s="5">
+      <c r="H40" s="5">
         <v>90100135</v>
       </c>
-      <c r="H40" s="5">
+      <c r="I40" s="5">
         <v>4</v>
       </c>
-      <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>40</v>
       </c>
       <c r="B41" s="6">
         <v>90100185</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="6">
+      <c r="C41" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="6">
         <v>290</v>
       </c>
-      <c r="E41" s="5">
+      <c r="F41" s="5">
         <v>1650</v>
       </c>
-      <c r="F41" s="5">
+      <c r="G41" s="5">
         <v>90100045</v>
       </c>
-      <c r="G41" s="5">
+      <c r="H41" s="5">
         <v>90100145</v>
       </c>
-      <c r="H41" s="5">
+      <c r="I41" s="5">
         <v>4</v>
       </c>
-      <c r="I41" s="10"/>
-    </row>
-    <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>41</v>
       </c>
       <c r="B42" s="7">
         <v>90100204</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="C42" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="7">
         <v>310</v>
       </c>
-      <c r="E42" s="7">
+      <c r="F42" s="7">
         <v>550</v>
       </c>
-      <c r="F42" s="7">
+      <c r="G42" s="7">
         <v>90100074</v>
       </c>
-      <c r="G42" s="7">
+      <c r="H42" s="7">
         <v>90100084</v>
       </c>
-      <c r="H42" s="7">
+      <c r="I42" s="7">
         <v>5</v>
       </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="5"/>
+      <c r="J42" s="10"/>
       <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>42</v>
       </c>
       <c r="B43" s="7">
         <v>90100205</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="7">
+      <c r="C43" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="7">
         <v>310</v>
       </c>
-      <c r="E43" s="8">
+      <c r="F43" s="8">
         <v>1650</v>
       </c>
-      <c r="F43" s="7">
+      <c r="G43" s="7">
         <v>90100075</v>
       </c>
-      <c r="G43" s="7">
+      <c r="H43" s="7">
         <v>90100085</v>
       </c>
-      <c r="H43" s="7">
+      <c r="I43" s="7">
         <v>5</v>
       </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="5"/>
+      <c r="J43" s="10"/>
       <c r="K43" s="5"/>
-    </row>
-    <row r="51" spans="3:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="3:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="3:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="C53" s="2"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="51" spans="3:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C51" s="14"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="3:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C52" s="14"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="3:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C53" s="14"/>
+      <c r="D53" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
